--- a/biology/Botanique/Orchis_bouffon/Orchis_bouffon.xlsx
+++ b/biology/Botanique/Orchis_bouffon/Orchis_bouffon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis morio
 L'orchis bouffon (Anacamptis morio), synonyme ancien: Orchis morio L., est une espèce d'orchidée terrestre européenne.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante robuste assez courte (8 à 40 cm), montrant une rosette de feuilles lancéolées, une hampe florale portant quelques feuilles longuement engainantes. L'inflorescence est peu dense, ne dépassant pas une vingtaine de fleurs de couleurs variées du violet au pourpre au lilas rose voire au blanc. Les sépales et les pétales latéraux sont réunis en un casque sub-globuleux nettement nervé de vert-gris à l'extérieur. Le labelle est large, à centre pâle, souvent taché de pourpre. Il existe un éperon court, épais, aplati et bilobé au sommet.
 Confusion possible avec l'orchis orné (Anacamptis picta).
@@ -547,7 +561,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de floraison précoce dans le sud de son aire de répartition (mars), plus tardive au nord (mai à juin).
 </t>
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En général de pleine lumière, tolérante au point de vue substrat, peuple des pelouses, prairies maigres, lisières et bois clairs.
 </t>
@@ -609,7 +627,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition, très vaste, va du sud de la Norvège à l'Iran et au bassin méditerranéen.
 </t>
@@ -640,9 +660,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
 L'espèce est souvent victime du prélèvement systématique des tubercules pour la commercialisation du Salep. Des stations complètes sont ainsi détruites.
 </t>
         </is>
@@ -672,7 +694,9 @@
           <t>Autres espèces du genre Anacamptis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anacamptis champagneuxii, orchis de Champagneux
 Anacamptis collina, orchis des collines
